--- a/Data/cleaned_supply_chain_data.xlsx
+++ b/Data/cleaned_supply_chain_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ziadz\Desktop\Data Analytics\Final_Project\Supply-chain-analysis-DEPI\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9207E0AD-96F9-4E9D-88F5-EDBA8C14B3C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{43F84B19-81C7-465E-9A6C-1E22840C12C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5DDD812F-084E-4595-BD25-5A7CEF25207E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5953CCBD-5BD8-4EF3-AFEE-30790578F698}"/>
   </bookViews>
   <sheets>
     <sheet name="cleaned_supply_chain_data" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="154">
-  <si>
-    <t>Product type</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="156">
+  <si>
+    <t>Product_Type</t>
   </si>
   <si>
     <t>SKU</t>
@@ -40,10 +40,10 @@
     <t>Revenue generated</t>
   </si>
   <si>
-    <t>Customer demographics</t>
-  </si>
-  <si>
-    <t>Stock levels</t>
+    <t>Customer_Demographics</t>
+  </si>
+  <si>
+    <t>Stock_Levels</t>
   </si>
   <si>
     <t>Lead times</t>
@@ -58,7 +58,7 @@
     <t>Shipping carriers</t>
   </si>
   <si>
-    <t>Shipping costs</t>
+    <t>Shipping_Costs</t>
   </si>
   <si>
     <t>Supplier name</t>
@@ -67,7 +67,7 @@
     <t>Location</t>
   </si>
   <si>
-    <t>Lead time</t>
+    <t>Lead_Time</t>
   </si>
   <si>
     <t>Production volumes</t>
@@ -76,13 +76,13 @@
     <t>Manufacturing lead time</t>
   </si>
   <si>
-    <t>Manufacturing costs</t>
+    <t>Manufacturing_Costs</t>
   </si>
   <si>
     <t>Inspection results</t>
   </si>
   <si>
-    <t>Defect rates</t>
+    <t>Defect_Rates</t>
   </si>
   <si>
     <t>Transportation modes</t>
@@ -92,6 +92,12 @@
   </si>
   <si>
     <t>Costs</t>
+  </si>
+  <si>
+    <t>Defect_Rate_Percentage</t>
+  </si>
+  <si>
+    <t>Profit_Margin</t>
   </si>
   <si>
     <t>haircare</t>
@@ -1341,14 +1347,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{735DACC1-1670-4028-9295-7C73D3DB2A4C}">
-  <dimension ref="A1:X101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86882A2A-21AA-423B-B09C-E1DBDFD9527A}">
+  <dimension ref="A1:Z101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1421,13 +1427,19 @@
       <c r="X1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C2">
         <v>69.808005542115694</v>
@@ -1442,7 +1454,7 @@
         <v>8661.9967923923796</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H2">
         <v>58</v>
@@ -1457,16 +1469,16 @@
         <v>4</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M2">
         <v>2.9565721394308002</v>
       </c>
       <c r="N2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P2">
         <v>29</v>
@@ -1481,27 +1493,33 @@
         <v>46.279879240508301</v>
       </c>
       <c r="T2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U2">
         <v>0.226410360849925</v>
       </c>
       <c r="V2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="W2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="X2">
         <v>187.75207545920301</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y2">
+        <v>2.2641036084992501E-3</v>
+      </c>
+      <c r="Z2">
+        <v>8615.7169131518694</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C3">
         <v>14.8435232750843</v>
@@ -1516,7 +1534,7 @@
         <v>7460.9000654458396</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H3">
         <v>53</v>
@@ -1531,16 +1549,16 @@
         <v>2</v>
       </c>
       <c r="L3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M3">
         <v>9.7165747714313095</v>
       </c>
       <c r="N3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P3">
         <v>23</v>
@@ -1555,27 +1573,33 @@
         <v>33.616768953730002</v>
       </c>
       <c r="T3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U3">
         <v>4.8540680263886999</v>
       </c>
       <c r="V3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="W3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="X3">
         <v>503.06557914966902</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y3">
+        <v>4.8540680263886998E-2</v>
+      </c>
+      <c r="Z3">
+        <v>7427.2832964921099</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C4">
         <v>11.319683293090501</v>
@@ -1590,7 +1614,7 @@
         <v>9577.7496258687297</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -1605,16 +1629,16 @@
         <v>2</v>
       </c>
       <c r="L4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M4">
         <v>8.0544792617321495</v>
       </c>
       <c r="N4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P4">
         <v>12</v>
@@ -1629,27 +1653,33 @@
         <v>30.6880193482842</v>
       </c>
       <c r="T4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U4">
         <v>4.5805926191992201</v>
       </c>
       <c r="V4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="X4">
         <v>141.920281771519</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y4">
+        <v>4.5805926191992197E-2</v>
+      </c>
+      <c r="Z4">
+        <v>9547.0616065204395</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C5">
         <v>61.1633430164377</v>
@@ -1664,7 +1694,7 @@
         <v>7766.8364256852301</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H5">
         <v>23</v>
@@ -1679,16 +1709,16 @@
         <v>6</v>
       </c>
       <c r="L5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M5">
         <v>1.7295685635434199</v>
       </c>
       <c r="N5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P5">
         <v>24</v>
@@ -1703,27 +1733,33 @@
         <v>35.624741397125</v>
       </c>
       <c r="T5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U5">
         <v>4.7466486206477496</v>
       </c>
       <c r="V5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="X5">
         <v>254.776159219286</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y5">
+        <v>4.7466486206477497E-2</v>
+      </c>
+      <c r="Z5">
+        <v>7731.2116842880996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C6">
         <v>4.8054960363458896</v>
@@ -1738,7 +1774,7 @@
         <v>2686.50515156744</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H6">
         <v>5</v>
@@ -1753,16 +1789,16 @@
         <v>8</v>
       </c>
       <c r="L6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M6">
         <v>3.8905479158706702</v>
       </c>
       <c r="N6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P6">
         <v>5</v>
@@ -1777,27 +1813,33 @@
         <v>92.065160598712794</v>
       </c>
       <c r="T6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U6">
         <v>3.1455795228330001</v>
       </c>
       <c r="V6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="X6">
         <v>923.44063171192204</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y6">
+        <v>3.1455795228330002E-2</v>
+      </c>
+      <c r="Z6">
+        <v>2594.4399909687299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C7">
         <v>1.6999760138659299</v>
@@ -1812,7 +1854,7 @@
         <v>2828.3487459757498</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H7">
         <v>90</v>
@@ -1827,16 +1869,16 @@
         <v>3</v>
       </c>
       <c r="L7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M7">
         <v>4.4440988643822896</v>
       </c>
       <c r="N7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P7">
         <v>10</v>
@@ -1851,27 +1893,33 @@
         <v>56.766475557431797</v>
       </c>
       <c r="T7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U7">
         <v>2.7791935115711599</v>
       </c>
       <c r="V7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="W7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="X7">
         <v>235.461236735537</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y7">
+        <v>2.77919351157116E-2</v>
+      </c>
+      <c r="Z7">
+        <v>2771.5822704183201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C8">
         <v>4.0783328631079403</v>
@@ -1886,7 +1934,7 @@
         <v>7823.4765595317303</v>
       </c>
       <c r="G8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H8">
         <v>11</v>
@@ -1901,16 +1949,16 @@
         <v>8</v>
       </c>
       <c r="L8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M8">
         <v>3.8807633029519999</v>
       </c>
       <c r="N8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8">
         <v>14</v>
@@ -1925,27 +1973,33 @@
         <v>1.0850685695870601</v>
       </c>
       <c r="T8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U8">
         <v>1.0009106193041299</v>
       </c>
       <c r="V8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="X8">
         <v>134.36909686103101</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y8">
+        <v>1.00091061930413E-2</v>
+      </c>
+      <c r="Z8">
+        <v>7822.3914909621499</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C9">
         <v>42.958384382459997</v>
@@ -1960,7 +2014,7 @@
         <v>8496.1038130898305</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H9">
         <v>93</v>
@@ -1975,16 +2029,16 @@
         <v>1</v>
       </c>
       <c r="L9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M9">
         <v>2.3483387844177801</v>
       </c>
       <c r="N9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P9">
         <v>22</v>
@@ -1999,27 +2053,33 @@
         <v>99.466108603599096</v>
       </c>
       <c r="T9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U9">
         <v>0.39817718685065001</v>
       </c>
       <c r="V9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="W9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="X9">
         <v>802.05631181755803</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y9">
+        <v>3.9817718685064996E-3</v>
+      </c>
+      <c r="Z9">
+        <v>8396.6377044862293</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C10">
         <v>68.717596748527299</v>
@@ -2034,7 +2094,7 @@
         <v>7517.3632106311197</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H10">
         <v>5</v>
@@ -2049,16 +2109,16 @@
         <v>7</v>
       </c>
       <c r="L10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M10">
         <v>3.4047338570830199</v>
       </c>
       <c r="N10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P10">
         <v>13</v>
@@ -2073,27 +2133,33 @@
         <v>11.423027139565599</v>
       </c>
       <c r="T10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U10">
         <v>2.7098626911099601</v>
       </c>
       <c r="V10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="X10">
         <v>505.55713422546398</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y10">
+        <v>2.7098626911099599E-2</v>
+      </c>
+      <c r="Z10">
+        <v>7505.9401834915598</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C11">
         <v>64.0157329412785</v>
@@ -2108,7 +2174,7 @@
         <v>4971.1459875855498</v>
       </c>
       <c r="G11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H11">
         <v>14</v>
@@ -2123,16 +2189,16 @@
         <v>1</v>
       </c>
       <c r="L11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M11">
         <v>7.1666452910482104</v>
       </c>
       <c r="N11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P11">
         <v>29</v>
@@ -2147,27 +2213,33 @@
         <v>47.957601634951502</v>
       </c>
       <c r="T11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U11">
         <v>3.8446144787675798</v>
       </c>
       <c r="V11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="X11">
         <v>995.92946149864099</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y11">
+        <v>3.8446144787675801E-2</v>
+      </c>
+      <c r="Z11">
+        <v>4923.1883859505997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C12">
         <v>15.707795681912099</v>
@@ -2182,7 +2254,7 @@
         <v>2330.9658020919401</v>
       </c>
       <c r="G12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H12">
         <v>51</v>
@@ -2197,16 +2269,16 @@
         <v>2</v>
       </c>
       <c r="L12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M12">
         <v>8.6732112112786108</v>
       </c>
       <c r="N12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P12">
         <v>18</v>
@@ -2221,27 +2293,33 @@
         <v>96.527352785310896</v>
       </c>
       <c r="T12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="U12">
         <v>1.72731392835594</v>
       </c>
       <c r="V12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="W12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="X12">
         <v>806.10317770292295</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y12">
+        <v>1.7273139283559402E-2</v>
+      </c>
+      <c r="Z12">
+        <v>2234.43844930663</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C13">
         <v>90.635459982288594</v>
@@ -2256,7 +2334,7 @@
         <v>6099.9441155814502</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H13">
         <v>46</v>
@@ -2271,16 +2349,16 @@
         <v>1</v>
       </c>
       <c r="L13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M13">
         <v>4.5239431243166601</v>
       </c>
       <c r="N13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P13">
         <v>28</v>
@@ -2295,27 +2373,33 @@
         <v>27.5923630866636</v>
       </c>
       <c r="T13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U13">
         <v>2.1169821372994301E-2</v>
       </c>
       <c r="V13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="X13">
         <v>126.72303340940699</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y13">
+        <v>2.11698213729943E-4</v>
+      </c>
+      <c r="Z13">
+        <v>6072.3517524947802</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C14">
         <v>71.213389075359999</v>
@@ -2330,7 +2414,7 @@
         <v>2873.74144602144</v>
       </c>
       <c r="G14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H14">
         <v>100</v>
@@ -2345,16 +2429,16 @@
         <v>4</v>
       </c>
       <c r="L14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M14">
         <v>1.32527401018452</v>
       </c>
       <c r="N14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P14">
         <v>3</v>
@@ -2369,27 +2453,33 @@
         <v>32.321286213424003</v>
       </c>
       <c r="T14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U14">
         <v>2.1612537475559099</v>
       </c>
       <c r="V14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="W14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="X14">
         <v>402.96878907376998</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y14">
+        <v>2.16125374755591E-2</v>
+      </c>
+      <c r="Z14">
+        <v>2841.4201598080099</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C15">
         <v>16.160393317379899</v>
@@ -2404,7 +2494,7 @@
         <v>4052.7384162378598</v>
       </c>
       <c r="G15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H15">
         <v>80</v>
@@ -2419,16 +2509,16 @@
         <v>9</v>
       </c>
       <c r="L15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M15">
         <v>9.5372830611083295</v>
       </c>
       <c r="N15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P15">
         <v>23</v>
@@ -2443,27 +2533,33 @@
         <v>97.829050110173199</v>
       </c>
       <c r="T15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U15">
         <v>1.63107423007153</v>
       </c>
       <c r="V15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="W15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="X15">
         <v>547.24100516096803</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y15">
+        <v>1.6310742300715299E-2</v>
+      </c>
+      <c r="Z15">
+        <v>3954.9093661276902</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C16">
         <v>99.171328638624203</v>
@@ -2478,7 +2574,7 @@
         <v>8653.5709264697998</v>
       </c>
       <c r="G16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H16">
         <v>54</v>
@@ -2493,16 +2589,16 @@
         <v>5</v>
       </c>
       <c r="L16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M16">
         <v>2.0397701894493299</v>
       </c>
       <c r="N16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P16">
         <v>25</v>
@@ -2517,27 +2613,33 @@
         <v>5.7914366298629796</v>
       </c>
       <c r="T16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U16">
         <v>0.100682851565093</v>
       </c>
       <c r="V16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="X16">
         <v>929.23528996088896</v>
       </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y16">
+        <v>1.0068285156509299E-3</v>
+      </c>
+      <c r="Z16">
+        <v>8647.7794898399297</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C17">
         <v>36.989244928626903</v>
@@ -2552,7 +2654,7 @@
         <v>5442.0867853976697</v>
       </c>
       <c r="G17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H17">
         <v>9</v>
@@ -2567,16 +2669,16 @@
         <v>7</v>
       </c>
       <c r="L17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M17">
         <v>2.4220397232752</v>
       </c>
       <c r="N17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P17">
         <v>14</v>
@@ -2591,27 +2693,33 @@
         <v>97.121281751474299</v>
       </c>
       <c r="T17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="U17">
         <v>2.2644057611985402</v>
       </c>
       <c r="V17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="X17">
         <v>127.861800001625</v>
       </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y17">
+        <v>2.2644057611985399E-2</v>
+      </c>
+      <c r="Z17">
+        <v>5344.96550364619</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C18">
         <v>7.5471721097912701</v>
@@ -2626,7 +2734,7 @@
         <v>6453.7979681762799</v>
       </c>
       <c r="G18" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -2641,16 +2749,16 @@
         <v>1</v>
       </c>
       <c r="L18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M18">
         <v>4.1913245857054999</v>
       </c>
       <c r="N18" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P18">
         <v>3</v>
@@ -2665,27 +2773,33 @@
         <v>77.106342497849994</v>
       </c>
       <c r="T18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="U18">
         <v>1.01256308925804</v>
       </c>
       <c r="V18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W18" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="X18">
         <v>865.52577977123997</v>
       </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y18">
+        <v>1.01256308925804E-2</v>
+      </c>
+      <c r="Z18">
+        <v>6376.6916256784298</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C19">
         <v>81.462534369237005</v>
@@ -2700,7 +2814,7 @@
         <v>2629.39643484526</v>
       </c>
       <c r="G19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H19">
         <v>45</v>
@@ -2715,16 +2829,16 @@
         <v>9</v>
       </c>
       <c r="L19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M19">
         <v>3.5854189582323399</v>
       </c>
       <c r="N19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P19">
         <v>7</v>
@@ -2739,27 +2853,33 @@
         <v>47.679680368355299</v>
       </c>
       <c r="T19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U19">
         <v>0.102020754918176</v>
       </c>
       <c r="V19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W19" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="X19">
         <v>670.93439079241</v>
       </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y19">
+        <v>1.0202075491817599E-3</v>
+      </c>
+      <c r="Z19">
+        <v>2581.7167544769</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C20">
         <v>36.4436277704609</v>
@@ -2774,7 +2894,7 @@
         <v>9364.6735050761708</v>
       </c>
       <c r="G20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H20">
         <v>10</v>
@@ -2789,16 +2909,16 @@
         <v>8</v>
       </c>
       <c r="L20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M20">
         <v>4.3392247141107001</v>
       </c>
       <c r="N20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P20">
         <v>18</v>
@@ -2813,27 +2933,33 @@
         <v>27.107980854843898</v>
       </c>
       <c r="T20" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U20">
         <v>2.2319391107292601</v>
       </c>
       <c r="V20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W20" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="X20">
         <v>593.48025872065102</v>
       </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y20">
+        <v>2.2319391107292599E-2</v>
+      </c>
+      <c r="Z20">
+        <v>9337.5655242213197</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C21">
         <v>51.123870087964697</v>
@@ -2848,7 +2974,7 @@
         <v>2553.4955849912099</v>
       </c>
       <c r="G21" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H21">
         <v>48</v>
@@ -2863,16 +2989,16 @@
         <v>3</v>
       </c>
       <c r="L21" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M21">
         <v>4.7426358828418698</v>
       </c>
       <c r="N21" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P21">
         <v>20</v>
@@ -2887,27 +3013,33 @@
         <v>82.373320587990193</v>
       </c>
       <c r="T21" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U21">
         <v>3.64645086541702</v>
       </c>
       <c r="V21" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="W21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="X21">
         <v>477.30763109090299</v>
       </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y21">
+        <v>3.6464508654170197E-2</v>
+      </c>
+      <c r="Z21">
+        <v>2471.12226440322</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C22">
         <v>96.341072439963298</v>
@@ -2922,7 +3054,7 @@
         <v>8128.0276968511898</v>
       </c>
       <c r="G22" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H22">
         <v>27</v>
@@ -2937,16 +3069,16 @@
         <v>6</v>
       </c>
       <c r="L22" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M22">
         <v>8.8783346509268402</v>
       </c>
       <c r="N22" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O22" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P22">
         <v>29</v>
@@ -2961,27 +3093,33 @@
         <v>65.686259608488598</v>
       </c>
       <c r="T22" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="U22">
         <v>4.2314165735345304</v>
       </c>
       <c r="V22" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="X22">
         <v>493.871215316205</v>
       </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y22">
+        <v>4.2314165735345299E-2</v>
+      </c>
+      <c r="Z22">
+        <v>8062.3414372426996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C23">
         <v>84.893868984950799</v>
@@ -2996,7 +3134,7 @@
         <v>7087.0526963574302</v>
       </c>
       <c r="G23" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H23">
         <v>69</v>
@@ -3011,16 +3149,16 @@
         <v>6</v>
       </c>
       <c r="L23" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M23">
         <v>6.0378837692182898</v>
       </c>
       <c r="N23" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P23">
         <v>19</v>
@@ -3035,27 +3173,33 @@
         <v>61.735728954160898</v>
       </c>
       <c r="T23" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U23">
         <v>1.8607567631014899E-2</v>
       </c>
       <c r="V23" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W23" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="X23">
         <v>523.36091472015801</v>
       </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y23">
+        <v>1.86075676310148E-4</v>
+      </c>
+      <c r="Z23">
+        <v>7025.3169674032697</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C24">
         <v>27.679780886501899</v>
@@ -3070,7 +3214,7 @@
         <v>2390.8078665561702</v>
       </c>
       <c r="G24" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H24">
         <v>71</v>
@@ -3085,16 +3229,16 @@
         <v>10</v>
       </c>
       <c r="L24" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M24">
         <v>9.5676489209230393</v>
       </c>
       <c r="N24" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O24" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P24">
         <v>22</v>
@@ -3109,27 +3253,33 @@
         <v>50.120839612977299</v>
       </c>
       <c r="T24" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U24">
         <v>2.5912754732111098</v>
       </c>
       <c r="V24" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="X24">
         <v>205.57199582694699</v>
       </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y24">
+        <v>2.5912754732111101E-2</v>
+      </c>
+      <c r="Z24">
+        <v>2340.6870269431902</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B25" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C25">
         <v>4.3243411858641601</v>
@@ -3144,7 +3294,7 @@
         <v>8858.3675710114803</v>
       </c>
       <c r="G25" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H25">
         <v>84</v>
@@ -3159,16 +3309,16 @@
         <v>7</v>
       </c>
       <c r="L25" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M25">
         <v>2.92485760114555</v>
       </c>
       <c r="N25" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O25" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P25">
         <v>11</v>
@@ -3183,27 +3333,33 @@
         <v>98.6099572427038</v>
       </c>
       <c r="T25" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U25">
         <v>1.3422915627227301</v>
       </c>
       <c r="V25" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W25" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="X25">
         <v>196.329446112412</v>
       </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y25">
+        <v>1.34229156272273E-2</v>
+      </c>
+      <c r="Z25">
+        <v>8759.7576137687793</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C26">
         <v>4.1563083593111001</v>
@@ -3218,7 +3374,7 @@
         <v>9049.0778609398894</v>
       </c>
       <c r="G26" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H26">
         <v>4</v>
@@ -3233,16 +3389,16 @@
         <v>8</v>
       </c>
       <c r="L26" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M26">
         <v>9.7412916892843597</v>
       </c>
       <c r="N26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P26">
         <v>28</v>
@@ -3257,27 +3413,33 @@
         <v>40.382359702924802</v>
       </c>
       <c r="T26" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U26">
         <v>3.69131029262872</v>
       </c>
       <c r="V26" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W26" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="X26">
         <v>758.72477260293795</v>
       </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y26">
+        <v>3.6913102926287203E-2</v>
+      </c>
+      <c r="Z26">
+        <v>9008.6955012369708</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C27">
         <v>39.629343985092603</v>
@@ -3292,7 +3454,7 @@
         <v>2174.7770543506499</v>
       </c>
       <c r="G27" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H27">
         <v>82</v>
@@ -3307,16 +3469,16 @@
         <v>3</v>
       </c>
       <c r="L27" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M27">
         <v>2.2310736812817198</v>
       </c>
       <c r="N27" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O27" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P27">
         <v>19</v>
@@ -3331,27 +3493,33 @@
         <v>78.280383118415301</v>
       </c>
       <c r="T27" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U27">
         <v>3.79723121711418</v>
       </c>
       <c r="V27" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="W27" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="X27">
         <v>458.53594573920901</v>
       </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y27">
+        <v>3.7972312171141803E-2</v>
+      </c>
+      <c r="Z27">
+        <v>2096.4966712322298</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C28">
         <v>97.446946617892806</v>
@@ -3366,7 +3534,7 @@
         <v>3716.49332589403</v>
       </c>
       <c r="G28" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H28">
         <v>59</v>
@@ -3381,16 +3549,16 @@
         <v>4</v>
       </c>
       <c r="L28" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M28">
         <v>6.5075486210785503</v>
       </c>
       <c r="N28" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P28">
         <v>26</v>
@@ -3405,27 +3573,33 @@
         <v>15.972229757181699</v>
       </c>
       <c r="T28" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="U28">
         <v>2.1193197367249201</v>
       </c>
       <c r="V28" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W28" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="X28">
         <v>617.86691645837698</v>
       </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y28">
+        <v>2.11931973672492E-2</v>
+      </c>
+      <c r="Z28">
+        <v>3700.5210961368498</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B29" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C29">
         <v>92.557360812401996</v>
@@ -3440,7 +3614,7 @@
         <v>2686.4572235759802</v>
       </c>
       <c r="G29" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H29">
         <v>47</v>
@@ -3455,16 +3629,16 @@
         <v>8</v>
       </c>
       <c r="L29" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M29">
         <v>7.4067509529980704</v>
       </c>
       <c r="N29" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O29" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P29">
         <v>25</v>
@@ -3479,27 +3653,33 @@
         <v>10.5282450700421</v>
       </c>
       <c r="T29" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U29">
         <v>2.8646678378833701</v>
       </c>
       <c r="V29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W29" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="X29">
         <v>762.45918215568304</v>
       </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y29">
+        <v>2.8646678378833699E-2</v>
+      </c>
+      <c r="Z29">
+        <v>2675.92897850594</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B30" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C30">
         <v>2.3972747055971402</v>
@@ -3514,7 +3694,7 @@
         <v>6117.3246150839896</v>
       </c>
       <c r="G30" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H30">
         <v>48</v>
@@ -3529,16 +3709,16 @@
         <v>4</v>
       </c>
       <c r="L30" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M30">
         <v>9.8981405080692202</v>
       </c>
       <c r="N30" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O30" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P30">
         <v>13</v>
@@ -3553,27 +3733,33 @@
         <v>59.429381810691503</v>
       </c>
       <c r="T30" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U30">
         <v>0.81575707929567198</v>
       </c>
       <c r="V30" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W30" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="X30">
         <v>123.437027511827</v>
       </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y30">
+        <v>8.1575707929567205E-3</v>
+      </c>
+      <c r="Z30">
+        <v>6057.8952332732997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B31" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C31">
         <v>63.447559185207297</v>
@@ -3588,7 +3774,7 @@
         <v>8318.9031946171708</v>
       </c>
       <c r="G31" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H31">
         <v>45</v>
@@ -3603,16 +3789,16 @@
         <v>7</v>
       </c>
       <c r="L31" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M31">
         <v>8.1009731453970293</v>
       </c>
       <c r="N31" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O31" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P31">
         <v>16</v>
@@ -3627,27 +3813,33 @@
         <v>39.292875586065698</v>
       </c>
       <c r="T31" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="U31">
         <v>3.8780989365884802</v>
       </c>
       <c r="V31" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="W31" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="X31">
         <v>764.93537594070801</v>
       </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y31">
+        <v>3.8780989365884803E-2</v>
+      </c>
+      <c r="Z31">
+        <v>8279.6103190311096</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C32">
         <v>8.0228592105263896</v>
@@ -3662,7 +3854,7 @@
         <v>2766.3423668660798</v>
       </c>
       <c r="G32" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H32">
         <v>60</v>
@@ -3677,16 +3869,16 @@
         <v>7</v>
       </c>
       <c r="L32" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M32">
         <v>8.9545283153180097</v>
       </c>
       <c r="N32" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O32" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P32">
         <v>27</v>
@@ -3701,27 +3893,33 @@
         <v>51.634893400109299</v>
       </c>
       <c r="T32" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U32">
         <v>0.96539470535239302</v>
       </c>
       <c r="V32" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="W32" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="X32">
         <v>880.08098824716103</v>
       </c>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y32">
+        <v>9.6539470535239296E-3</v>
+      </c>
+      <c r="Z32">
+        <v>2714.70747346597</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C33">
         <v>50.847393051718697</v>
@@ -3736,7 +3934,7 @@
         <v>9655.1351027193905</v>
       </c>
       <c r="G33" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H33">
         <v>6</v>
@@ -3751,16 +3949,16 @@
         <v>4</v>
       </c>
       <c r="L33" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M33">
         <v>2.6796609649813998</v>
       </c>
       <c r="N33" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O33" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P33">
         <v>24</v>
@@ -3775,27 +3973,33 @@
         <v>60.251145661598002</v>
       </c>
       <c r="T33" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U33">
         <v>2.9890000066550702</v>
       </c>
       <c r="V33" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W33" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="X33">
         <v>609.379206618426</v>
       </c>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y33">
+        <v>2.9890000066550699E-2</v>
+      </c>
+      <c r="Z33">
+        <v>9594.8839570578002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C34">
         <v>79.209936015656695</v>
@@ -3810,7 +4014,7 @@
         <v>9571.5504873278205</v>
       </c>
       <c r="G34" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H34">
         <v>89</v>
@@ -3825,16 +4029,16 @@
         <v>4</v>
       </c>
       <c r="L34" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M34">
         <v>6.5991049012385803</v>
       </c>
       <c r="N34" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O34" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P34">
         <v>30</v>
@@ -3849,27 +4053,33 @@
         <v>29.6924671537497</v>
       </c>
       <c r="T34" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="U34">
         <v>1.94603611938611</v>
       </c>
       <c r="V34" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="W34" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="X34">
         <v>761.17390951487698</v>
       </c>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y34">
+        <v>1.94603611938611E-2</v>
+      </c>
+      <c r="Z34">
+        <v>9541.8580201740697</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B35" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C35">
         <v>64.795435000155607</v>
@@ -3884,7 +4094,7 @@
         <v>5149.9983504080301</v>
       </c>
       <c r="G35" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H35">
         <v>4</v>
@@ -3899,16 +4109,16 @@
         <v>9</v>
       </c>
       <c r="L35" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M35">
         <v>4.85827050343664</v>
       </c>
       <c r="N35" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O35" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P35">
         <v>1</v>
@@ -3923,27 +4133,33 @@
         <v>23.853427512896101</v>
       </c>
       <c r="T35" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U35">
         <v>3.54104601225092</v>
       </c>
       <c r="V35" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W35" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="X35">
         <v>371.25529551987103</v>
       </c>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y35">
+        <v>3.5410460122509202E-2</v>
+      </c>
+      <c r="Z35">
+        <v>5126.1449228951396</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C36">
         <v>37.467592329842397</v>
@@ -3958,7 +4174,7 @@
         <v>9061.7108955077201</v>
       </c>
       <c r="G36" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3973,16 +4189,16 @@
         <v>7</v>
       </c>
       <c r="L36" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M36">
         <v>1.0194875708221101</v>
       </c>
       <c r="N36" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O36" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P36">
         <v>4</v>
@@ -3997,27 +4213,33 @@
         <v>10.754272815029299</v>
       </c>
       <c r="T36" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="U36">
         <v>0.64660455937205397</v>
       </c>
       <c r="V36" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="W36" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="X36">
         <v>510.35800043352299</v>
       </c>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y36">
+        <v>6.4660455937205399E-3</v>
+      </c>
+      <c r="Z36">
+        <v>9050.9566226926909</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B37" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C37">
         <v>84.957786816350406</v>
@@ -4032,7 +4254,7 @@
         <v>6541.3293448024597</v>
       </c>
       <c r="G37" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H37">
         <v>42</v>
@@ -4047,16 +4269,16 @@
         <v>8</v>
       </c>
       <c r="L37" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M37">
         <v>5.2881899903273997</v>
       </c>
       <c r="N37" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P37">
         <v>3</v>
@@ -4071,27 +4293,33 @@
         <v>58.004787044743701</v>
       </c>
       <c r="T37" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="U37">
         <v>0.54115409806058101</v>
       </c>
       <c r="V37" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W37" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="X37">
         <v>553.42047123035502</v>
       </c>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y37">
+        <v>5.4115409806058104E-3</v>
+      </c>
+      <c r="Z37">
+        <v>6483.32455775772</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C38">
         <v>9.81300257875405</v>
@@ -4106,7 +4334,7 @@
         <v>7573.4024578487297</v>
       </c>
       <c r="G38" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H38">
         <v>18</v>
@@ -4121,16 +4349,16 @@
         <v>3</v>
       </c>
       <c r="L38" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M38">
         <v>2.1079512671590801</v>
       </c>
       <c r="N38" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O38" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P38">
         <v>26</v>
@@ -4145,27 +4373,33 @@
         <v>45.531364237162101</v>
       </c>
       <c r="T38" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U38">
         <v>3.8055333792433501</v>
       </c>
       <c r="V38" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W38" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="X38">
         <v>403.80897424817999</v>
       </c>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y38">
+        <v>3.8055333792433498E-2</v>
+      </c>
+      <c r="Z38">
+        <v>7527.8710936115704</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C39">
         <v>23.3998447526143</v>
@@ -4180,7 +4414,7 @@
         <v>2438.3399304700201</v>
       </c>
       <c r="G39" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H39">
         <v>25</v>
@@ -4195,16 +4429,16 @@
         <v>9</v>
       </c>
       <c r="L39" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M39">
         <v>1.53265527359043</v>
       </c>
       <c r="N39" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O39" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P39">
         <v>24</v>
@@ -4219,27 +4453,33 @@
         <v>34.343277465075303</v>
       </c>
       <c r="T39" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U39">
         <v>2.61028808484811</v>
       </c>
       <c r="V39" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W39" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="X39">
         <v>183.932968043594</v>
       </c>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y39">
+        <v>2.61028808484811E-2</v>
+      </c>
+      <c r="Z39">
+        <v>2403.9966530049501</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B40" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C40">
         <v>52.075930682707799</v>
@@ -4254,7 +4494,7 @@
         <v>9692.3180402184298</v>
       </c>
       <c r="G40" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H40">
         <v>69</v>
@@ -4269,16 +4509,16 @@
         <v>5</v>
       </c>
       <c r="L40" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M40">
         <v>9.2359314372492207</v>
       </c>
       <c r="N40" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O40" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P40">
         <v>10</v>
@@ -4293,27 +4533,33 @@
         <v>5.9306936455283097</v>
       </c>
       <c r="T40" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U40">
         <v>0.613326899164507</v>
       </c>
       <c r="V40" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W40" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="X40">
         <v>339.67286994860598</v>
       </c>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y40">
+        <v>6.1332689916450698E-3</v>
+      </c>
+      <c r="Z40">
+        <v>9686.3873465728993</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C41">
         <v>19.127477265823199</v>
@@ -4328,7 +4574,7 @@
         <v>1912.4656631007599</v>
       </c>
       <c r="G41" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H41">
         <v>78</v>
@@ -4343,16 +4589,16 @@
         <v>3</v>
       </c>
       <c r="L41" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M41">
         <v>5.5625037788303802</v>
       </c>
       <c r="N41" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O41" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P41">
         <v>30</v>
@@ -4367,27 +4613,33 @@
         <v>9.0058074287816403</v>
       </c>
       <c r="T41" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U41">
         <v>1.4519722039968099</v>
       </c>
       <c r="V41" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W41" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="X41">
         <v>653.67299455203295</v>
       </c>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y41">
+        <v>1.4519722039968101E-2</v>
+      </c>
+      <c r="Z41">
+        <v>1903.45985567197</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C42">
         <v>80.541424170940303</v>
@@ -4402,7 +4654,7 @@
         <v>5724.9593504562599</v>
       </c>
       <c r="G42" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H42">
         <v>90</v>
@@ -4417,16 +4669,16 @@
         <v>8</v>
       </c>
       <c r="L42" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M42">
         <v>7.2295951397364702</v>
       </c>
       <c r="N42" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O42" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P42">
         <v>18</v>
@@ -4441,27 +4693,33 @@
         <v>88.179407104217404</v>
       </c>
       <c r="T42" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U42">
         <v>4.2132694305865597</v>
       </c>
       <c r="V42" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="W42" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="X42">
         <v>529.80872398069096</v>
       </c>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y42">
+        <v>4.2132694305865602E-2</v>
+      </c>
+      <c r="Z42">
+        <v>5636.7799433520404</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C43">
         <v>99.113291615317095</v>
@@ -4476,7 +4734,7 @@
         <v>5521.2052590109697</v>
       </c>
       <c r="G43" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H43">
         <v>64</v>
@@ -4491,16 +4749,16 @@
         <v>8</v>
       </c>
       <c r="L43" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M43">
         <v>5.7732637437666501</v>
       </c>
       <c r="N43" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O43" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P43">
         <v>18</v>
@@ -4515,27 +4773,33 @@
         <v>95.332064548772493</v>
       </c>
       <c r="T43" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U43">
         <v>4.5302262398259602E-2</v>
       </c>
       <c r="V43" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W43" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="X43">
         <v>275.52437113130901</v>
       </c>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y43">
+        <v>4.5302262398259598E-4</v>
+      </c>
+      <c r="Z43">
+        <v>5425.8731944621904</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B44" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C44">
         <v>46.529167614516702</v>
@@ -4550,7 +4814,7 @@
         <v>1839.60942585676</v>
       </c>
       <c r="G44" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H44">
         <v>22</v>
@@ -4565,16 +4829,16 @@
         <v>4</v>
       </c>
       <c r="L44" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M44">
         <v>7.5262483268515004</v>
       </c>
       <c r="N44" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P44">
         <v>26</v>
@@ -4589,27 +4853,33 @@
         <v>96.422820639571796</v>
       </c>
       <c r="T44" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U44">
         <v>4.9392552886209398</v>
       </c>
       <c r="V44" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="W44" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="X44">
         <v>635.65712050199102</v>
       </c>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y44">
+        <v>4.9392552886209397E-2</v>
+      </c>
+      <c r="Z44">
+        <v>1743.1866052171899</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B45" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C45">
         <v>11.7432717763092</v>
@@ -4624,7 +4894,7 @@
         <v>5737.4255991190203</v>
       </c>
       <c r="G45" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H45">
         <v>36</v>
@@ -4639,16 +4909,16 @@
         <v>9</v>
       </c>
       <c r="L45" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M45">
         <v>3.6940212683884499</v>
       </c>
       <c r="N45" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O45" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P45">
         <v>1</v>
@@ -4663,27 +4933,33 @@
         <v>26.2773659573324</v>
       </c>
       <c r="T45" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U45">
         <v>0.37230476798509698</v>
       </c>
       <c r="V45" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W45" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="X45">
         <v>716.04411975933999</v>
       </c>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y45">
+        <v>3.72304767985097E-3</v>
+      </c>
+      <c r="Z45">
+        <v>5711.1482331616899</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B46" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C46">
         <v>51.355790913110297</v>
@@ -4698,7 +4974,7 @@
         <v>7152.28604943551</v>
       </c>
       <c r="G46" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H46">
         <v>13</v>
@@ -4713,16 +4989,16 @@
         <v>6</v>
       </c>
       <c r="L46" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M46">
         <v>7.5774496573766896</v>
       </c>
       <c r="N46" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O46" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P46">
         <v>7</v>
@@ -4737,27 +5013,33 @@
         <v>22.554106620887701</v>
       </c>
       <c r="T46" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U46">
         <v>2.9626263204548802</v>
       </c>
       <c r="V46" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W46" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="X46">
         <v>610.45326961922694</v>
       </c>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y46">
+        <v>2.9626263204548801E-2</v>
+      </c>
+      <c r="Z46">
+        <v>7129.7319428146202</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B47" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C47">
         <v>33.784138033065503</v>
@@ -4772,7 +5054,7 @@
         <v>5267.9568075105199</v>
       </c>
       <c r="G47" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H47">
         <v>93</v>
@@ -4787,16 +5069,16 @@
         <v>6</v>
       </c>
       <c r="L47" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M47">
         <v>5.2151550087119096</v>
       </c>
       <c r="N47" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O47" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P47">
         <v>25</v>
@@ -4811,27 +5093,33 @@
         <v>66.312544439991598</v>
       </c>
       <c r="T47" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="U47">
         <v>3.2196046120841002</v>
       </c>
       <c r="V47" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W47" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="X47">
         <v>495.30569702847401</v>
       </c>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y47">
+        <v>3.2196046120841003E-2</v>
+      </c>
+      <c r="Z47">
+        <v>5201.6442630705196</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B48" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C48">
         <v>27.082207199888899</v>
@@ -4846,7 +5134,7 @@
         <v>2556.7673606335902</v>
       </c>
       <c r="G48" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H48">
         <v>92</v>
@@ -4861,16 +5149,16 @@
         <v>8</v>
       </c>
       <c r="L48" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M48">
         <v>4.0709558370840799</v>
       </c>
       <c r="N48" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O48" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P48">
         <v>18</v>
@@ -4885,27 +5173,33 @@
         <v>77.322353211051606</v>
       </c>
       <c r="T48" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U48">
         <v>3.6486105925361998</v>
       </c>
       <c r="V48" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="W48" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="X48">
         <v>380.43593711196399</v>
       </c>
-    </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y48">
+        <v>3.6486105925362E-2</v>
+      </c>
+      <c r="Z48">
+        <v>2479.4450074225401</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B49" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C49">
         <v>95.712135880936003</v>
@@ -4920,7 +5214,7 @@
         <v>7089.4742499341801</v>
       </c>
       <c r="G49" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H49">
         <v>4</v>
@@ -4935,16 +5229,16 @@
         <v>9</v>
       </c>
       <c r="L49" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M49">
         <v>8.9787507559499709</v>
       </c>
       <c r="N49" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O49" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P49">
         <v>10</v>
@@ -4959,27 +5253,33 @@
         <v>19.7129929112936</v>
       </c>
       <c r="T49" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U49">
         <v>0.38057358671321301</v>
       </c>
       <c r="V49" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W49" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="X49">
         <v>581.60235505058597</v>
       </c>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y49">
+        <v>3.8057358671321302E-3</v>
+      </c>
+      <c r="Z49">
+        <v>7069.7612570228903</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B50" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C50">
         <v>76.035544426891704</v>
@@ -4994,7 +5294,7 @@
         <v>7397.0710045871801</v>
       </c>
       <c r="G50" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H50">
         <v>30</v>
@@ -5009,16 +5309,16 @@
         <v>3</v>
       </c>
       <c r="L50" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M50">
         <v>7.0958331565551296</v>
       </c>
       <c r="N50" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O50" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P50">
         <v>9</v>
@@ -5033,27 +5333,33 @@
         <v>23.126363582464698</v>
       </c>
       <c r="T50" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U50">
         <v>1.6981125407144</v>
       </c>
       <c r="V50" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W50" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="X50">
         <v>768.65191395437</v>
       </c>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y50">
+        <v>1.6981125407143999E-2</v>
+      </c>
+      <c r="Z50">
+        <v>7373.9446410047103</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B51" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C51">
         <v>78.897913205639995</v>
@@ -5068,7 +5374,7 @@
         <v>8001.6132065190004</v>
       </c>
       <c r="G51" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H51">
         <v>97</v>
@@ -5083,16 +5389,16 @@
         <v>6</v>
       </c>
       <c r="L51" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M51">
         <v>2.5056210329009101</v>
       </c>
       <c r="N51" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O51" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P51">
         <v>28</v>
@@ -5107,27 +5413,33 @@
         <v>14.1478154439792</v>
       </c>
       <c r="T51" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="U51">
         <v>2.8258139854001301</v>
       </c>
       <c r="V51" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W51" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="X51">
         <v>336.89016851997701</v>
       </c>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y51">
+        <v>2.8258139854001298E-2</v>
+      </c>
+      <c r="Z51">
+        <v>7987.4653910750203</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B52" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C52">
         <v>14.203484264803</v>
@@ -5142,7 +5454,7 @@
         <v>5910.8853896688897</v>
       </c>
       <c r="G52" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H52">
         <v>31</v>
@@ -5157,16 +5469,16 @@
         <v>10</v>
       </c>
       <c r="L52" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M52">
         <v>6.2478609149759903</v>
       </c>
       <c r="N52" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O52" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P52">
         <v>20</v>
@@ -5181,27 +5493,33 @@
         <v>45.178757924634503</v>
       </c>
       <c r="T52" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U52">
         <v>4.7548008046711798</v>
       </c>
       <c r="V52" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W52" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="X52">
         <v>496.24865029194001</v>
       </c>
-    </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y52">
+        <v>4.7548008046711797E-2</v>
+      </c>
+      <c r="Z52">
+        <v>5865.7066317442604</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B53" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C53">
         <v>26.700760972461701</v>
@@ -5216,7 +5534,7 @@
         <v>9866.4654579796897</v>
       </c>
       <c r="G53" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H53">
         <v>100</v>
@@ -5231,16 +5549,16 @@
         <v>1</v>
       </c>
       <c r="L53" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M53">
         <v>4.78300055794766</v>
       </c>
       <c r="N53" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P53">
         <v>18</v>
@@ -5255,27 +5573,33 @@
         <v>14.190328344569901</v>
       </c>
       <c r="T53" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U53">
         <v>1.77295117208355</v>
       </c>
       <c r="V53" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="W53" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="X53">
         <v>694.98231757944495</v>
       </c>
-    </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y53">
+        <v>1.7729511720835499E-2</v>
+      </c>
+      <c r="Z53">
+        <v>9852.2751296351198</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B54" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C54">
         <v>98.031829656465007</v>
@@ -5290,7 +5614,7 @@
         <v>9435.7626089121295</v>
       </c>
       <c r="G54" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H54">
         <v>64</v>
@@ -5305,16 +5629,16 @@
         <v>1</v>
       </c>
       <c r="L54" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M54">
         <v>8.6310521797689397</v>
       </c>
       <c r="N54" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O54" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P54">
         <v>10</v>
@@ -5329,27 +5653,33 @@
         <v>9.1668491485971497</v>
       </c>
       <c r="T54" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U54">
         <v>2.1224716191438202</v>
       </c>
       <c r="V54" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W54" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="X54">
         <v>602.89849883838303</v>
       </c>
-    </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y54">
+        <v>2.12247161914382E-2</v>
+      </c>
+      <c r="Z54">
+        <v>9426.5957597635297</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B55" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C55">
         <v>30.3414707112142</v>
@@ -5364,7 +5694,7 @@
         <v>8232.3348294258194</v>
       </c>
       <c r="G55" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H55">
         <v>96</v>
@@ -5379,16 +5709,16 @@
         <v>3</v>
       </c>
       <c r="L55" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M55">
         <v>1.0134865660958901</v>
       </c>
       <c r="N55" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O55" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P55">
         <v>1</v>
@@ -5403,27 +5733,33 @@
         <v>83.344058991677898</v>
       </c>
       <c r="T55" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U55">
         <v>1.41034757607602</v>
       </c>
       <c r="V55" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W55" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="X55">
         <v>750.73784066827</v>
       </c>
-    </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y55">
+        <v>1.41034757607602E-2</v>
+      </c>
+      <c r="Z55">
+        <v>8148.9907704341404</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B56" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C56">
         <v>31.1462431602408</v>
@@ -5438,7 +5774,7 @@
         <v>6088.0214799408504</v>
       </c>
       <c r="G56" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H56">
         <v>33</v>
@@ -5453,16 +5789,16 @@
         <v>3</v>
       </c>
       <c r="L56" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M56">
         <v>4.3051034712876302</v>
       </c>
       <c r="N56" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O56" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P56">
         <v>26</v>
@@ -5477,27 +5813,33 @@
         <v>30.186023375822501</v>
       </c>
       <c r="T56" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="U56">
         <v>2.4787719755397402</v>
       </c>
       <c r="V56" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="W56" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="X56">
         <v>814.06999658218695</v>
       </c>
-    </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y56">
+        <v>2.4787719755397401E-2</v>
+      </c>
+      <c r="Z56">
+        <v>6057.8354565650297</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B57" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C57">
         <v>79.855058340789398</v>
@@ -5512,7 +5854,7 @@
         <v>2925.6751703038099</v>
       </c>
       <c r="G57" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H57">
         <v>97</v>
@@ -5527,16 +5869,16 @@
         <v>5</v>
       </c>
       <c r="L57" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M57">
         <v>5.0143649550309002</v>
       </c>
       <c r="N57" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O57" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P57">
         <v>27</v>
@@ -5551,27 +5893,33 @@
         <v>30.323545256616502</v>
       </c>
       <c r="T57" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U57">
         <v>4.5489196593963799</v>
       </c>
       <c r="V57" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W57" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="X57">
         <v>323.01292795247798</v>
       </c>
-    </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y57">
+        <v>4.5489196593963797E-2</v>
+      </c>
+      <c r="Z57">
+        <v>2895.3516250471898</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B58" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C58">
         <v>20.9863860370433</v>
@@ -5586,7 +5934,7 @@
         <v>4767.0204843441297</v>
       </c>
       <c r="G58" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H58">
         <v>25</v>
@@ -5601,16 +5949,16 @@
         <v>5</v>
       </c>
       <c r="L58" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M58">
         <v>1.77442971407173</v>
       </c>
       <c r="N58" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O58" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P58">
         <v>24</v>
@@ -5625,27 +5973,33 @@
         <v>12.8362845728327</v>
       </c>
       <c r="T58" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="U58">
         <v>1.1737554953874501</v>
       </c>
       <c r="V58" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W58" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="X58">
         <v>832.210808706021</v>
       </c>
-    </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y58">
+        <v>1.1737554953874499E-2</v>
+      </c>
+      <c r="Z58">
+        <v>4754.1841997713</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B59" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C59">
         <v>49.263205350734097</v>
@@ -5660,7 +6014,7 @@
         <v>1605.8669003924001</v>
       </c>
       <c r="G59" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H59">
         <v>5</v>
@@ -5675,16 +6029,16 @@
         <v>1</v>
       </c>
       <c r="L59" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M59">
         <v>9.1605585353818704</v>
       </c>
       <c r="N59" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O59" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P59">
         <v>21</v>
@@ -5699,27 +6053,33 @@
         <v>67.779622987078099</v>
       </c>
       <c r="T59" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U59">
         <v>2.5111748302126999</v>
       </c>
       <c r="V59" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W59" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="X59">
         <v>482.19123860252802</v>
       </c>
-    </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y59">
+        <v>2.5111748302127E-2</v>
+      </c>
+      <c r="Z59">
+        <v>1538.08727740532</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B60" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C60">
         <v>59.841561377289302</v>
@@ -5734,7 +6094,7 @@
         <v>2021.1498103371</v>
       </c>
       <c r="G60" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H60">
         <v>10</v>
@@ -5749,16 +6109,16 @@
         <v>7</v>
       </c>
       <c r="L60" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M60">
         <v>4.9384385647120901</v>
       </c>
       <c r="N60" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O60" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P60">
         <v>18</v>
@@ -5773,27 +6133,33 @@
         <v>65.047415094691402</v>
       </c>
       <c r="T60" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U60">
         <v>1.7303747198591899</v>
       </c>
       <c r="V60" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="W60" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="X60">
         <v>110.364335231364</v>
       </c>
-    </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y60">
+        <v>1.7303747198591901E-2</v>
+      </c>
+      <c r="Z60">
+        <v>1956.10239524241</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C61">
         <v>63.828398347710902</v>
@@ -5808,7 +6174,7 @@
         <v>1061.6185230132801</v>
       </c>
       <c r="G61" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H61">
         <v>100</v>
@@ -5823,16 +6189,16 @@
         <v>7</v>
       </c>
       <c r="L61" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M61">
         <v>7.2937225968677204</v>
       </c>
       <c r="N61" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O61" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P61">
         <v>11</v>
@@ -5847,27 +6213,33 @@
         <v>1.90076224351945</v>
       </c>
       <c r="T61" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U61">
         <v>0.44719401546382298</v>
       </c>
       <c r="V61" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W61" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="X61">
         <v>312.57427361009297</v>
       </c>
-    </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y61">
+        <v>4.4719401546382299E-3</v>
+      </c>
+      <c r="Z61">
+        <v>1059.7177607697599</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B62" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C62">
         <v>17.028027920188698</v>
@@ -5882,7 +6254,7 @@
         <v>8864.0843495864301</v>
       </c>
       <c r="G62" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H62">
         <v>41</v>
@@ -5897,16 +6269,16 @@
         <v>8</v>
       </c>
       <c r="L62" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M62">
         <v>4.3813681581023101</v>
       </c>
       <c r="N62" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O62" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P62">
         <v>29</v>
@@ -5921,27 +6293,33 @@
         <v>87.213057815135599</v>
       </c>
       <c r="T62" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U62">
         <v>2.8530906166490499</v>
       </c>
       <c r="V62" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W62" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="X62">
         <v>430.16909697513597</v>
       </c>
-    </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y62">
+        <v>2.85309061664905E-2</v>
+      </c>
+      <c r="Z62">
+        <v>8776.8712917713001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B63" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C63">
         <v>52.028749903294901</v>
@@ -5956,7 +6334,7 @@
         <v>6885.5893508962499</v>
       </c>
       <c r="G63" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H63">
         <v>32</v>
@@ -5971,16 +6349,16 @@
         <v>7</v>
       </c>
       <c r="L63" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M63">
         <v>9.0303404225219399</v>
       </c>
       <c r="N63" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O63" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P63">
         <v>14</v>
@@ -5995,27 +6373,33 @@
         <v>78.702393968878894</v>
       </c>
       <c r="T63" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U63">
         <v>4.3674705382050503</v>
       </c>
       <c r="V63" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W63" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="X63">
         <v>164.366528243419</v>
       </c>
-    </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y63">
+        <v>4.3674705382050497E-2</v>
+      </c>
+      <c r="Z63">
+        <v>6806.8869569273702</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B64" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C64">
         <v>72.796353955587307</v>
@@ -6030,7 +6414,7 @@
         <v>3899.7468337292198</v>
       </c>
       <c r="G64" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H64">
         <v>86</v>
@@ -6045,16 +6429,16 @@
         <v>7</v>
       </c>
       <c r="L64" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M64">
         <v>7.2917013887767697</v>
       </c>
       <c r="N64" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O64" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P64">
         <v>13</v>
@@ -6069,27 +6453,33 @@
         <v>21.048642725168602</v>
       </c>
       <c r="T64" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="U64">
         <v>1.87400140404437</v>
       </c>
       <c r="V64" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W64" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="X64">
         <v>320.84651575911101</v>
       </c>
-    </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y64">
+        <v>1.87400140404437E-2</v>
+      </c>
+      <c r="Z64">
+        <v>3878.6981910040499</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B65" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C65">
         <v>13.0173767852878</v>
@@ -6104,7 +6494,7 @@
         <v>4256.9491408502199</v>
       </c>
       <c r="G65" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H65">
         <v>54</v>
@@ -6119,16 +6509,16 @@
         <v>4</v>
       </c>
       <c r="L65" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M65">
         <v>2.45793352798733</v>
       </c>
       <c r="N65" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O65" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P65">
         <v>18</v>
@@ -6143,27 +6533,33 @@
         <v>20.075003975630398</v>
       </c>
       <c r="T65" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U65">
         <v>3.6328432903821302</v>
       </c>
       <c r="V65" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W65" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="X65">
         <v>687.28617786641701</v>
       </c>
-    </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y65">
+        <v>3.6328432903821303E-2</v>
+      </c>
+      <c r="Z65">
+        <v>4236.8741368745896</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B66" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C66">
         <v>89.634095608135297</v>
@@ -6178,7 +6574,7 @@
         <v>8458.7308783671706</v>
       </c>
       <c r="G66" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H66">
         <v>73</v>
@@ -6193,16 +6589,16 @@
         <v>6</v>
       </c>
       <c r="L66" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M66">
         <v>4.5853534681946497</v>
       </c>
       <c r="N66" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O66" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P66">
         <v>17</v>
@@ -6217,27 +6613,33 @@
         <v>8.6930424258772803</v>
       </c>
       <c r="T66" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U66">
         <v>0.15948631471751401</v>
       </c>
       <c r="V66" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W66" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="X66">
         <v>771.225084681157</v>
       </c>
-    </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y66">
+        <v>1.5948631471751401E-3</v>
+      </c>
+      <c r="Z66">
+        <v>8450.0378359413007</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B67" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C67">
         <v>33.697717206643098</v>
@@ -6252,7 +6654,7 @@
         <v>8354.5796864819895</v>
       </c>
       <c r="G67" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H67">
         <v>57</v>
@@ -6267,16 +6669,16 @@
         <v>8</v>
       </c>
       <c r="L67" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M67">
         <v>6.5805413478845898</v>
       </c>
       <c r="N67" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O67" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P67">
         <v>16</v>
@@ -6291,27 +6693,33 @@
         <v>1.59722274305067</v>
       </c>
       <c r="T67" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U67">
         <v>4.9110959548423301</v>
       </c>
       <c r="V67" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W67" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="X67">
         <v>555.85910367174301</v>
       </c>
-    </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y67">
+        <v>4.9110959548423302E-2</v>
+      </c>
+      <c r="Z67">
+        <v>8352.9824637389393</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B68" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C68">
         <v>26.034869773962001</v>
@@ -6326,7 +6734,7 @@
         <v>8367.7216180201503</v>
       </c>
       <c r="G68" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H68">
         <v>13</v>
@@ -6341,16 +6749,16 @@
         <v>8</v>
       </c>
       <c r="L68" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M68">
         <v>2.2161427287713602</v>
       </c>
       <c r="N68" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O68" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P68">
         <v>24</v>
@@ -6365,27 +6773,33 @@
         <v>42.084436738309897</v>
       </c>
       <c r="T68" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U68">
         <v>3.44806328834026</v>
       </c>
       <c r="V68" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="W68" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="X68">
         <v>393.84334857842703</v>
       </c>
-    </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y68">
+        <v>3.4480632883402598E-2</v>
+      </c>
+      <c r="Z68">
+        <v>8325.6371812818397</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B69" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C69">
         <v>87.755432354001002</v>
@@ -6400,7 +6814,7 @@
         <v>9473.7980325083299</v>
       </c>
       <c r="G69" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H69">
         <v>12</v>
@@ -6415,16 +6829,16 @@
         <v>9</v>
       </c>
       <c r="L69" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M69">
         <v>9.1478115447106294</v>
       </c>
       <c r="N69" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O69" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P69">
         <v>10</v>
@@ -6439,27 +6853,33 @@
         <v>7.0578761469782298</v>
       </c>
       <c r="T69" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="U69">
         <v>0.131955444311814</v>
       </c>
       <c r="V69" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W69" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="X69">
         <v>169.27180138478599</v>
       </c>
-    </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y69">
+        <v>1.31955444311814E-3</v>
+      </c>
+      <c r="Z69">
+        <v>9466.7401563613494</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B70" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C70">
         <v>37.931812382790298</v>
@@ -6474,7 +6894,7 @@
         <v>3550.21843278099</v>
       </c>
       <c r="G70" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -6489,16 +6909,16 @@
         <v>8</v>
       </c>
       <c r="L70" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M70">
         <v>1.19425186488499</v>
       </c>
       <c r="N70" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O70" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P70">
         <v>2</v>
@@ -6513,27 +6933,33 @@
         <v>97.113581563462205</v>
       </c>
       <c r="T70" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U70">
         <v>1.9834678721741801</v>
       </c>
       <c r="V70" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W70" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="X70">
         <v>299.70630311810299</v>
       </c>
-    </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y70">
+        <v>1.98346787217418E-2</v>
+      </c>
+      <c r="Z70">
+        <v>3453.1048512175298</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B71" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C71">
         <v>54.865528517069698</v>
@@ -6548,7 +6974,7 @@
         <v>1752.3810874841199</v>
       </c>
       <c r="G71" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H71">
         <v>95</v>
@@ -6563,16 +6989,16 @@
         <v>3</v>
       </c>
       <c r="L71" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M71">
         <v>9.7052867901203399</v>
       </c>
       <c r="N71" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O71" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P71">
         <v>9</v>
@@ -6587,27 +7013,33 @@
         <v>77.627765812748095</v>
       </c>
       <c r="T71" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U71">
         <v>1.3623879886490999</v>
       </c>
       <c r="V71" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W71" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="X71">
         <v>207.66320620857499</v>
       </c>
-    </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y71">
+        <v>1.3623879886491001E-2</v>
+      </c>
+      <c r="Z71">
+        <v>1674.75332167137</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B72" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C72">
         <v>47.914541824058702</v>
@@ -6622,7 +7054,7 @@
         <v>7014.8879872033804</v>
       </c>
       <c r="G72" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H72">
         <v>10</v>
@@ -6637,16 +7069,16 @@
         <v>4</v>
       </c>
       <c r="L72" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M72">
         <v>6.3157177546007199</v>
       </c>
       <c r="N72" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O72" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P72">
         <v>22</v>
@@ -6661,27 +7093,33 @@
         <v>11.440781823761199</v>
       </c>
       <c r="T72" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="U72">
         <v>1.8305755986122301</v>
       </c>
       <c r="V72" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="W72" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="X72">
         <v>183.27289874871099</v>
       </c>
-    </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y72">
+        <v>1.8305755986122298E-2</v>
+      </c>
+      <c r="Z72">
+        <v>7003.4472053796198</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B73" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C73">
         <v>6.3815331627479601</v>
@@ -6696,7 +7134,7 @@
         <v>8180.3370854254399</v>
       </c>
       <c r="G73" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H73">
         <v>76</v>
@@ -6711,16 +7149,16 @@
         <v>6</v>
       </c>
       <c r="L73" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M73">
         <v>9.2281903170525101</v>
       </c>
       <c r="N73" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O73" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P73">
         <v>2</v>
@@ -6735,27 +7173,33 @@
         <v>30.661677477859499</v>
       </c>
       <c r="T73" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U73">
         <v>2.07875060787496</v>
       </c>
       <c r="V73" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="W73" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="X73">
         <v>405.167067888855</v>
       </c>
-    </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y73">
+        <v>2.0787506078749601E-2</v>
+      </c>
+      <c r="Z73">
+        <v>8149.6754079475804</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B74" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C74">
         <v>90.204427520528</v>
@@ -6770,7 +7214,7 @@
         <v>2633.1219813122498</v>
       </c>
       <c r="G74" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H74">
         <v>57</v>
@@ -6785,16 +7229,16 @@
         <v>9</v>
       </c>
       <c r="L74" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M74">
         <v>6.5996141596895397</v>
       </c>
       <c r="N74" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O74" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P74">
         <v>21</v>
@@ -6809,27 +7253,33 @@
         <v>55.760492895244198</v>
       </c>
       <c r="T74" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U74">
         <v>3.2133296074383</v>
       </c>
       <c r="V74" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W74" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="X74">
         <v>677.94456984618296</v>
       </c>
-    </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y74">
+        <v>3.2133296074382998E-2</v>
+      </c>
+      <c r="Z74">
+        <v>2577.3614884170102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B75" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C75">
         <v>83.851017681304597</v>
@@ -6844,7 +7294,7 @@
         <v>7910.8869161406801</v>
       </c>
       <c r="G75" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H75">
         <v>17</v>
@@ -6859,16 +7309,16 @@
         <v>5</v>
       </c>
       <c r="L75" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M75">
         <v>1.5129368369160701</v>
       </c>
       <c r="N75" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O75" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P75">
         <v>13</v>
@@ -6883,27 +7333,33 @@
         <v>46.870238797617098</v>
       </c>
       <c r="T75" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U75">
         <v>4.6205460645137002</v>
       </c>
       <c r="V75" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="W75" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="X75">
         <v>866.472800129657</v>
       </c>
-    </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y75">
+        <v>4.6205460645137003E-2</v>
+      </c>
+      <c r="Z75">
+        <v>7864.0166773430601</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B76" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C76">
         <v>3.1700114135661499</v>
@@ -6918,7 +7374,7 @@
         <v>5709.9452959692799</v>
       </c>
       <c r="G76" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H76">
         <v>41</v>
@@ -6933,16 +7389,16 @@
         <v>5</v>
       </c>
       <c r="L76" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M76">
         <v>5.2376546500374399</v>
       </c>
       <c r="N76" t="s">
+        <v>54</v>
+      </c>
+      <c r="O76" t="s">
         <v>52</v>
-      </c>
-      <c r="O76" t="s">
-        <v>50</v>
       </c>
       <c r="P76">
         <v>1</v>
@@ -6957,27 +7413,33 @@
         <v>80.580852156447804</v>
       </c>
       <c r="T76" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U76">
         <v>0.39661272410993498</v>
       </c>
       <c r="V76" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W76" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="X76">
         <v>341.55265678322297</v>
       </c>
-    </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y76">
+        <v>3.9661272410993504E-3</v>
+      </c>
+      <c r="Z76">
+        <v>5629.3644438128304</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B77" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C77">
         <v>92.996884233970604</v>
@@ -6992,7 +7454,7 @@
         <v>1889.07358977933</v>
       </c>
       <c r="G77" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H77">
         <v>16</v>
@@ -7007,16 +7469,16 @@
         <v>10</v>
       </c>
       <c r="L77" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M77">
         <v>2.47389776104546</v>
       </c>
       <c r="N77" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O77" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P77">
         <v>25</v>
@@ -7031,27 +7493,33 @@
         <v>48.064782640006499</v>
       </c>
       <c r="T77" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="U77">
         <v>2.0300690886687498</v>
       </c>
       <c r="V77" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W77" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="X77">
         <v>873.12964801765099</v>
       </c>
-    </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y77">
+        <v>2.0300690886687501E-2</v>
+      </c>
+      <c r="Z77">
+        <v>1841.00880713932</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B78" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C78">
         <v>69.108799547430294</v>
@@ -7066,7 +7534,7 @@
         <v>5328.3759842977497</v>
       </c>
       <c r="G78" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H78">
         <v>38</v>
@@ -7081,16 +7549,16 @@
         <v>10</v>
       </c>
       <c r="L78" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M78">
         <v>7.0545383368369201</v>
       </c>
       <c r="N78" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O78" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P78">
         <v>25</v>
@@ -7105,27 +7573,33 @@
         <v>64.323597795600193</v>
       </c>
       <c r="T78" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U78">
         <v>2.1800374515822099</v>
       </c>
       <c r="V78" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W78" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="X78">
         <v>997.41345013319403</v>
       </c>
-    </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y78">
+        <v>2.1800374515822101E-2</v>
+      </c>
+      <c r="Z78">
+        <v>5264.0523865021496</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B79" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C79">
         <v>57.449742958971399</v>
@@ -7140,7 +7614,7 @@
         <v>2483.7601775427902</v>
       </c>
       <c r="G79" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H79">
         <v>96</v>
@@ -7155,16 +7629,16 @@
         <v>4</v>
       </c>
       <c r="L79" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M79">
         <v>6.7809466256178901</v>
       </c>
       <c r="N79" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O79" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P79">
         <v>26</v>
@@ -7179,27 +7653,33 @@
         <v>42.952444748991802</v>
       </c>
       <c r="T79" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="U79">
         <v>3.0551418183075398</v>
       </c>
       <c r="V79" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="W79" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="X79">
         <v>852.56809891984994</v>
       </c>
-    </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y79">
+        <v>3.0551418183075399E-2</v>
+      </c>
+      <c r="Z79">
+        <v>2440.8077327937999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B80" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C80">
         <v>6.30688317611191</v>
@@ -7214,7 +7694,7 @@
         <v>1292.45841793775</v>
       </c>
       <c r="G80" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H80">
         <v>5</v>
@@ -7229,16 +7709,16 @@
         <v>5</v>
       </c>
       <c r="L80" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M80">
         <v>8.4670497708619905</v>
       </c>
       <c r="N80" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O80" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P80">
         <v>25</v>
@@ -7253,27 +7733,33 @@
         <v>71.126514720403307</v>
       </c>
       <c r="T80" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U80">
         <v>4.0968813324704501</v>
       </c>
       <c r="V80" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W80" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="X80">
         <v>323.59220343132199</v>
       </c>
-    </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y80">
+        <v>4.0968813324704499E-2</v>
+      </c>
+      <c r="Z80">
+        <v>1221.3319032173499</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B81" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C81">
         <v>57.057031221103202</v>
@@ -7288,7 +7774,7 @@
         <v>7888.7232684270803</v>
       </c>
       <c r="G81" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H81">
         <v>31</v>
@@ -7303,16 +7789,16 @@
         <v>1</v>
       </c>
       <c r="L81" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M81">
         <v>6.49632536429504</v>
       </c>
       <c r="N81" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O81" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P81">
         <v>5</v>
@@ -7327,27 +7813,33 @@
         <v>57.870902924036201</v>
       </c>
       <c r="T81" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U81">
         <v>0.16587162748060799</v>
       </c>
       <c r="V81" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W81" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="X81">
         <v>351.50421933503799</v>
       </c>
-    </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y81">
+        <v>1.65871627480608E-3</v>
+      </c>
+      <c r="Z81">
+        <v>7830.8523655030403</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B82" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C82">
         <v>91.128318350444303</v>
@@ -7362,7 +7854,7 @@
         <v>8651.67268298206</v>
       </c>
       <c r="G82" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H82">
         <v>39</v>
@@ -7377,16 +7869,16 @@
         <v>2</v>
       </c>
       <c r="L82" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M82">
         <v>2.8331846794189701</v>
       </c>
       <c r="N82" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O82" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P82">
         <v>8</v>
@@ -7401,27 +7893,33 @@
         <v>76.961228023819999</v>
       </c>
       <c r="T82" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U82">
         <v>2.8496621985053299</v>
       </c>
       <c r="V82" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W82" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="X82">
         <v>787.77985049434403</v>
       </c>
-    </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y82">
+        <v>2.8496621985053299E-2</v>
+      </c>
+      <c r="Z82">
+        <v>8574.7114549582402</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B83" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C83">
         <v>72.819206930318202</v>
@@ -7436,7 +7934,7 @@
         <v>4384.4134000458598</v>
       </c>
       <c r="G83" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H83">
         <v>48</v>
@@ -7451,16 +7949,16 @@
         <v>5</v>
       </c>
       <c r="L83" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M83">
         <v>4.0662775015120403</v>
       </c>
       <c r="N83" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O83" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P83">
         <v>28</v>
@@ -7475,27 +7973,33 @@
         <v>19.789592941903599</v>
       </c>
       <c r="T83" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U83">
         <v>2.54754712154871</v>
       </c>
       <c r="V83" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W83" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="X83">
         <v>276.77833594679799</v>
       </c>
-    </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y83">
+        <v>2.54754712154871E-2</v>
+      </c>
+      <c r="Z83">
+        <v>4364.6238071039597</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B84" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C84">
         <v>17.034930739467899</v>
@@ -7510,7 +8014,7 @@
         <v>2943.3818676094502</v>
       </c>
       <c r="G84" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H84">
         <v>42</v>
@@ -7525,16 +8029,16 @@
         <v>1</v>
       </c>
       <c r="L84" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M84">
         <v>4.7081818735419301</v>
       </c>
       <c r="N84" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O84" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P84">
         <v>6</v>
@@ -7549,27 +8053,33 @@
         <v>4.4652784349432402</v>
       </c>
       <c r="T84" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U84">
         <v>4.1378770486223502</v>
       </c>
       <c r="V84" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="W84" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="X84">
         <v>589.97855562804</v>
       </c>
-    </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y84">
+        <v>4.1378770486223501E-2</v>
+      </c>
+      <c r="Z84">
+        <v>2938.9165891745001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B85" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C85">
         <v>68.911246211606297</v>
@@ -7584,7 +8094,7 @@
         <v>2411.7546321104901</v>
       </c>
       <c r="G85" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H85">
         <v>65</v>
@@ -7599,16 +8109,16 @@
         <v>8</v>
       </c>
       <c r="L85" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M85">
         <v>4.94983957799694</v>
       </c>
       <c r="N85" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O85" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P85">
         <v>20</v>
@@ -7623,27 +8133,33 @@
         <v>97.730593800533001</v>
       </c>
       <c r="T85" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U85">
         <v>0.77300613406724705</v>
       </c>
       <c r="V85" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="W85" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="X85">
         <v>682.97101822609295</v>
       </c>
-    </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y85">
+        <v>7.7300613406724701E-3</v>
+      </c>
+      <c r="Z85">
+        <v>2314.0240383099499</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B86" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C86">
         <v>89.104367292102197</v>
@@ -7658,7 +8174,7 @@
         <v>2048.2900998487098</v>
       </c>
       <c r="G86" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H86">
         <v>73</v>
@@ -7673,16 +8189,16 @@
         <v>10</v>
       </c>
       <c r="L86" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M86">
         <v>8.3816156249226292</v>
       </c>
       <c r="N86" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O86" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P86">
         <v>24</v>
@@ -7697,27 +8213,33 @@
         <v>33.808636513209002</v>
       </c>
       <c r="T86" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="U86">
         <v>4.8434565771180402</v>
       </c>
       <c r="V86" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W86" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="X86">
         <v>465.457005963688</v>
       </c>
-    </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y86">
+        <v>4.8434565771180403E-2</v>
+      </c>
+      <c r="Z86">
+        <v>2014.4814633354999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B87" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C87">
         <v>76.962994415193805</v>
@@ -7732,7 +8254,7 @@
         <v>8684.6130592538502</v>
       </c>
       <c r="G87" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H87">
         <v>15</v>
@@ -7747,16 +8269,16 @@
         <v>2</v>
       </c>
       <c r="L87" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M87">
         <v>8.2491687048717193</v>
       </c>
       <c r="N87" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O87" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P87">
         <v>4</v>
@@ -7771,27 +8293,33 @@
         <v>69.929345518672307</v>
       </c>
       <c r="T87" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U87">
         <v>1.3744289997457499</v>
       </c>
       <c r="V87" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="W87" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="X87">
         <v>842.68683000464102</v>
       </c>
-    </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y87">
+        <v>1.37442899974575E-2</v>
+      </c>
+      <c r="Z87">
+        <v>8614.6837137351795</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B88" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C88">
         <v>19.9981769404042</v>
@@ -7806,7 +8334,7 @@
         <v>1229.59102856498</v>
       </c>
       <c r="G88" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H88">
         <v>32</v>
@@ -7821,16 +8349,16 @@
         <v>6</v>
       </c>
       <c r="L88" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M88">
         <v>1.4543053101535499</v>
       </c>
       <c r="N88" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O88" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P88">
         <v>4</v>
@@ -7845,27 +8373,33 @@
         <v>74.608969995194599</v>
       </c>
       <c r="T88" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="U88">
         <v>2.0515129307662399</v>
       </c>
       <c r="V88" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W88" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="X88">
         <v>264.25488983586598</v>
       </c>
-    </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y88">
+        <v>2.0515129307662399E-2</v>
+      </c>
+      <c r="Z88">
+        <v>1154.9820585697801</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B89" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C89">
         <v>80.414036650355698</v>
@@ -7880,7 +8414,7 @@
         <v>5133.8467010866898</v>
       </c>
       <c r="G89" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H89">
         <v>5</v>
@@ -7895,16 +8429,16 @@
         <v>10</v>
       </c>
       <c r="L89" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M89">
         <v>6.5758037975485299</v>
       </c>
       <c r="N89" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O89" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P89">
         <v>27</v>
@@ -7919,27 +8453,33 @@
         <v>28.696996824143099</v>
       </c>
       <c r="T89" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U89">
         <v>3.6937377878392699</v>
       </c>
       <c r="V89" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W89" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="X89">
         <v>879.35921773492396</v>
       </c>
-    </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y89">
+        <v>3.6937377878392699E-2</v>
+      </c>
+      <c r="Z89">
+        <v>5105.1497042625397</v>
+      </c>
+    </row>
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B90" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C90">
         <v>75.270406975724995</v>
@@ -7954,7 +8494,7 @@
         <v>9444.7420330629793</v>
       </c>
       <c r="G90" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H90">
         <v>60</v>
@@ -7969,16 +8509,16 @@
         <v>7</v>
       </c>
       <c r="L90" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M90">
         <v>3.8012531329310701</v>
       </c>
       <c r="N90" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O90" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P90">
         <v>21</v>
@@ -7993,27 +8533,33 @@
         <v>68.1849190570411</v>
       </c>
       <c r="T90" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U90">
         <v>0.722204401882931</v>
       </c>
       <c r="V90" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W90" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="X90">
         <v>103.916247960704</v>
       </c>
-    </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y90">
+        <v>7.22204401882931E-3</v>
+      </c>
+      <c r="Z90">
+        <v>9376.5571140059292</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B91" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C91">
         <v>97.760085581938597</v>
@@ -8028,7 +8574,7 @@
         <v>5924.6825668532301</v>
       </c>
       <c r="G91" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H91">
         <v>90</v>
@@ -8043,16 +8589,16 @@
         <v>8</v>
       </c>
       <c r="L91" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M91">
         <v>9.9298162452772605</v>
       </c>
       <c r="N91" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O91" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P91">
         <v>23</v>
@@ -8067,27 +8613,33 @@
         <v>46.603873381644398</v>
       </c>
       <c r="T91" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U91">
         <v>1.9076657339590699</v>
       </c>
       <c r="V91" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W91" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="X91">
         <v>517.49997392906005</v>
       </c>
-    </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y91">
+        <v>1.90766573395907E-2</v>
+      </c>
+      <c r="Z91">
+        <v>5878.0786934715798</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B92" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C92">
         <v>13.881913501359101</v>
@@ -8102,7 +8654,7 @@
         <v>9592.6335702803099</v>
       </c>
       <c r="G92" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H92">
         <v>66</v>
@@ -8117,16 +8669,16 @@
         <v>7</v>
       </c>
       <c r="L92" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M92">
         <v>7.6744307081126903</v>
       </c>
       <c r="N92" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O92" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P92">
         <v>8</v>
@@ -8141,27 +8693,33 @@
         <v>85.675963335797903</v>
       </c>
       <c r="T92" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="U92">
         <v>1.2193822244013801</v>
       </c>
       <c r="V92" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W92" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="X92">
         <v>990.07847250581096</v>
       </c>
-    </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y92">
+        <v>1.21938222440138E-2</v>
+      </c>
+      <c r="Z92">
+        <v>9506.9576069445102</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B93" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C93">
         <v>62.111965463961702</v>
@@ -8176,7 +8734,7 @@
         <v>1935.20679350759</v>
       </c>
       <c r="G93" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H93">
         <v>98</v>
@@ -8191,16 +8749,16 @@
         <v>7</v>
       </c>
       <c r="L93" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M93">
         <v>7.4715140844011403</v>
       </c>
       <c r="N93" t="s">
+        <v>54</v>
+      </c>
+      <c r="O93" t="s">
         <v>52</v>
-      </c>
-      <c r="O93" t="s">
-        <v>50</v>
       </c>
       <c r="P93">
         <v>5</v>
@@ -8215,27 +8773,33 @@
         <v>39.772882502339897</v>
       </c>
       <c r="T93" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U93">
         <v>0.62600185820939402</v>
       </c>
       <c r="V93" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W93" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="X93">
         <v>996.77831495062298</v>
       </c>
-    </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y93">
+        <v>6.2600185820939399E-3</v>
+      </c>
+      <c r="Z93">
+        <v>1895.4339110052499</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B94" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C94">
         <v>47.714233075820196</v>
@@ -8250,7 +8814,7 @@
         <v>2100.1297546259302</v>
       </c>
       <c r="G94" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H94">
         <v>90</v>
@@ -8265,16 +8829,16 @@
         <v>8</v>
       </c>
       <c r="L94" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M94">
         <v>4.4695000261236002</v>
       </c>
       <c r="N94" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O94" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P94">
         <v>4</v>
@@ -8289,27 +8853,33 @@
         <v>62.612690395614301</v>
       </c>
       <c r="T94" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="U94">
         <v>0.33343182522473902</v>
       </c>
       <c r="V94" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W94" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="X94">
         <v>230.092782536762</v>
       </c>
-    </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y94">
+        <v>3.3343182522473898E-3</v>
+      </c>
+      <c r="Z94">
+        <v>2037.5170642303201</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B95" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C95">
         <v>69.290831002905406</v>
@@ -8324,7 +8894,7 @@
         <v>4531.4021336919004</v>
       </c>
       <c r="G95" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H95">
         <v>63</v>
@@ -8339,16 +8909,16 @@
         <v>1</v>
       </c>
       <c r="L95" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M95">
         <v>7.00643205900439</v>
       </c>
       <c r="N95" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O95" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P95">
         <v>21</v>
@@ -8363,27 +8933,33 @@
         <v>35.633652343343797</v>
       </c>
       <c r="T95" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U95">
         <v>4.1657817954241398</v>
       </c>
       <c r="V95" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W95" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="X95">
         <v>823.52384588815505</v>
       </c>
-    </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y95">
+        <v>4.1657817954241401E-2</v>
+      </c>
+      <c r="Z95">
+        <v>4495.7684813485603</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B96" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C96">
         <v>3.0376887246314102</v>
@@ -8398,7 +8974,7 @@
         <v>7888.3565466618702</v>
       </c>
       <c r="G96" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H96">
         <v>77</v>
@@ -8413,16 +8989,16 @@
         <v>9</v>
       </c>
       <c r="L96" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M96">
         <v>6.9429459420325799</v>
       </c>
       <c r="N96" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O96" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P96">
         <v>12</v>
@@ -8437,27 +9013,33 @@
         <v>60.387378614862101</v>
       </c>
       <c r="T96" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="U96">
         <v>1.4636074984727701</v>
       </c>
       <c r="V96" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W96" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="X96">
         <v>846.66525698669398</v>
       </c>
-    </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y96">
+        <v>1.4636074984727699E-2</v>
+      </c>
+      <c r="Z96">
+        <v>7827.9691680470096</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B97" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C97">
         <v>77.903927219447695</v>
@@ -8472,7 +9054,7 @@
         <v>7386.3639440486604</v>
       </c>
       <c r="G97" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H97">
         <v>15</v>
@@ -8487,16 +9069,16 @@
         <v>9</v>
       </c>
       <c r="L97" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M97">
         <v>8.6303388696027508</v>
       </c>
       <c r="N97" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O97" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P97">
         <v>18</v>
@@ -8511,27 +9093,33 @@
         <v>58.890685768589897</v>
       </c>
       <c r="T97" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U97">
         <v>1.21088212958506</v>
       </c>
       <c r="V97" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W97" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="X97">
         <v>778.86424137664699</v>
       </c>
-    </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y97">
+        <v>1.21088212958506E-2</v>
+      </c>
+      <c r="Z97">
+        <v>7327.4732582800698</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B98" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C98">
         <v>24.423131420373299</v>
@@ -8546,7 +9134,7 @@
         <v>7698.4247656321104</v>
       </c>
       <c r="G98" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H98">
         <v>67</v>
@@ -8561,16 +9149,16 @@
         <v>3</v>
       </c>
       <c r="L98" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M98">
         <v>5.3528780439967996</v>
       </c>
       <c r="N98" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O98" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P98">
         <v>28</v>
@@ -8585,27 +9173,33 @@
         <v>17.803756331391199</v>
       </c>
       <c r="T98" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U98">
         <v>3.8720476814821301</v>
       </c>
       <c r="V98" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="W98" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="X98">
         <v>188.74214114905601</v>
       </c>
-    </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y98">
+        <v>3.8720476814821297E-2</v>
+      </c>
+      <c r="Z98">
+        <v>7680.6210093007203</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B99" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C99">
         <v>3.5261112591434101</v>
@@ -8620,7 +9214,7 @@
         <v>4370.9165799845296</v>
       </c>
       <c r="G99" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H99">
         <v>46</v>
@@ -8635,16 +9229,16 @@
         <v>9</v>
       </c>
       <c r="L99" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M99">
         <v>7.9048456112096703</v>
       </c>
       <c r="N99" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O99" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P99">
         <v>10</v>
@@ -8659,27 +9253,33 @@
         <v>65.765155926367399</v>
       </c>
       <c r="T99" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U99">
         <v>3.3762378347179798</v>
       </c>
       <c r="V99" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="W99" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="X99">
         <v>540.13242286796697</v>
       </c>
-    </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y99">
+        <v>3.3762378347179801E-2</v>
+      </c>
+      <c r="Z99">
+        <v>4305.15142405816</v>
+      </c>
+    </row>
+    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B100" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C100">
         <v>19.754604866878601</v>
@@ -8694,7 +9294,7 @@
         <v>8525.9525596835192</v>
       </c>
       <c r="G100" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H100">
         <v>53</v>
@@ -8709,16 +9309,16 @@
         <v>7</v>
       </c>
       <c r="L100" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M100">
         <v>1.4098010951380699</v>
       </c>
       <c r="N100" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O100" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P100">
         <v>28</v>
@@ -8733,27 +9333,33 @@
         <v>5.6046908643717801</v>
       </c>
       <c r="T100" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U100">
         <v>2.9081221693512598</v>
       </c>
       <c r="V100" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W100" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="X100">
         <v>882.19886354704101</v>
       </c>
-    </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y100">
+        <v>2.9081221693512599E-2</v>
+      </c>
+      <c r="Z100">
+        <v>8520.3478688191499</v>
+      </c>
+    </row>
+    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B101" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C101">
         <v>68.517832699276596</v>
@@ -8768,7 +9374,7 @@
         <v>9185.1858291817007</v>
       </c>
       <c r="G101" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H101">
         <v>55</v>
@@ -8783,16 +9389,16 @@
         <v>6</v>
       </c>
       <c r="L101" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M101">
         <v>1.3110237561206199</v>
       </c>
       <c r="N101" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O101" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P101">
         <v>29</v>
@@ -8807,19 +9413,25 @@
         <v>38.072898520625998</v>
       </c>
       <c r="T101" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U101">
         <v>0.34602729070550298</v>
       </c>
       <c r="V101" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W101" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="X101">
         <v>210.743008964246</v>
+      </c>
+      <c r="Y101">
+        <v>3.46027290705503E-3</v>
+      </c>
+      <c r="Z101">
+        <v>9147.1129306610692</v>
       </c>
     </row>
   </sheetData>
